--- a/biology/Zoologie/Eupanacra_radians/Eupanacra_radians.xlsx
+++ b/biology/Zoologie/Eupanacra_radians/Eupanacra_radians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupanacra radianss est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Macroglossina et du genre Eupanacra. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de l'aile antérieure est d'environ 24,5 mm. L'espèce ressemble à Eupanacra sinuata, mais de plus petite taille. L'aile postérieure est plus claire et plus étroite. La moitié extérieure de la face inférieure de l'aile antérieure est brun rougeâtre et la moitié intérieure est brun foncé.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est endémique en Indonésie de l’île de Sumatra.</t>
@@ -573,11 +589,47 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Eupanacra radians a été décrite par l'entomologiste Bruno Gehlen en 1930, sous le nom initial de Panacra radians[1].
-Synonymie
-Panacra radians Gehlen, 1930 Protonyme</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Eupanacra radians a été décrite par l'entomologiste Bruno Gehlen en 1930, sous le nom initial de Panacra radians.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupanacra_radians</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupanacra_radians</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Panacra radians Gehlen, 1930 Protonyme</t>
         </is>
       </c>
     </row>
